--- a/Mühendis.xlsx
+++ b/Mühendis.xlsx
@@ -5,22 +5,27 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk44142\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9018729A-29C2-436B-B5E1-88346B09B924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F5AC2D-DB51-4D88-9D02-31F846B4C04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personel Listesi" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>EMİNE ALANLI KIRCILI</t>
   </si>
@@ -67,9 +72,6 @@
     <t>ÖZKAN AKBAŞ</t>
   </si>
   <si>
-    <t>SETENAY AKSU</t>
-  </si>
-  <si>
     <t>TEVFİK YILDIZ</t>
   </si>
   <si>
@@ -85,10 +87,10 @@
     <t>MUSTAFA DIKI</t>
   </si>
   <si>
-    <t>NAİLE DİKEÇ</t>
-  </si>
-  <si>
     <t>MEHTAP AKDOĞAN</t>
+  </si>
+  <si>
+    <t>VOLKAN İZCİ</t>
   </si>
 </sst>
 </file>
@@ -465,136 +467,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.875" customWidth="1"/>
+    <col min="1" max="1" width="30.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:A21 A22 A23" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:A15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>